--- a/Notebooks/13_Words_beneficiu.xlsx
+++ b/Notebooks/13_Words_beneficiu.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\In-Codice-Ratio-OCR-with-CNN\Notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\In-Codice-Ratio-OCR-with-CNN\Notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="27">
   <si>
     <t>correct cuts</t>
   </si>
@@ -101,7 +101,10 @@
     <t>taglio quasi perfetto della u</t>
   </si>
   <si>
-    <t>I problemi sono sulle i e sulla f, che , nel nostro taglio manuale del notebook 11 le pipe 2 e 4 riuscivano a riconoscerle. Per la f e la prima i si tratta di un glifo fi, che una volta aggiunto al dataset non darà questi problemi.</t>
+    <t xml:space="preserve">I problemi sono sulle i e sulla f, che , nel nostro taglio manuale del notebook 11 le pipe 2 e 4 riuscivano a </t>
+  </si>
+  <si>
+    <t>riconoscerle. Per la f e la prima i si tratta di un glifo "fi", che una volta aggiunto al dataset non darà questi problemi.</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,6 +924,9 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
       <c r="L16">
         <v>18</v>
       </c>
